--- a/output/3Y_P30_KFSDIV.xlsx
+++ b/output/3Y_P30_KFSDIV.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="31">
   <si>
     <t>NAV</t>
   </si>
@@ -110,6 +110,9 @@
   </si>
   <si>
     <t>Dividend</t>
+  </si>
+  <si>
+    <t>Wealth/Cost</t>
   </si>
 </sst>
 </file>
@@ -985,7 +988,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>-22</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>13.962</v>
@@ -1029,7 +1032,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>-21</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>12.2659</v>
@@ -1079,7 +1082,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>-20</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>12.4103</v>
@@ -1129,7 +1132,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>-19</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>12.3976</v>
@@ -1179,7 +1182,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>-18</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>12.9013</v>
@@ -1229,7 +1232,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>-17</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>13.3527</v>
@@ -1279,7 +1282,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>-16</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>13.8804</v>
@@ -1329,7 +1332,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>-15</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>14.6268</v>
@@ -1379,7 +1382,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>-14</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>15.3636</v>
@@ -1429,7 +1432,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>-13</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>13.8711</v>
@@ -1479,7 +1482,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>-12</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>14.1252</v>
@@ -1529,7 +1532,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>-11</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>14.1934</v>
@@ -1579,7 +1582,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>-10</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>14.1176</v>
@@ -1629,7 +1632,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="2">
-        <v>-9</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>15.3311</v>
@@ -1679,7 +1682,7 @@
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="2">
-        <v>-8</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>15.3637</v>
@@ -1729,7 +1732,7 @@
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="2">
-        <v>-7</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>14.6447</v>
@@ -1779,7 +1782,7 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="2">
-        <v>-6</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>15.486</v>
@@ -1829,7 +1832,7 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="2">
-        <v>-5</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>16.1958</v>
@@ -1879,7 +1882,7 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="2">
-        <v>-4</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>16.4264</v>
@@ -1929,7 +1932,7 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="2">
-        <v>-3</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>17.107</v>
@@ -1979,7 +1982,7 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="2">
-        <v>-2</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>16.8894</v>
@@ -2029,7 +2032,7 @@
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="2">
-        <v>-1</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>16.4004</v>
@@ -2079,7 +2082,7 @@
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="2">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>15.3877</v>
@@ -2129,7 +2132,7 @@
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="2">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>14.6367</v>
@@ -2179,7 +2182,7 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="2">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>13.0061</v>
@@ -2229,7 +2232,7 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="2">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>13.835</v>
@@ -2279,7 +2282,7 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="2">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>14.4216</v>
@@ -2329,7 +2332,7 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="2">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>13.2404</v>
@@ -2379,7 +2382,7 @@
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="2">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>12.382</v>
@@ -2429,7 +2432,7 @@
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="2">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>11.9583</v>
@@ -2479,7 +2482,7 @@
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="2">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="B32" s="1">
         <v>12.2036</v>
@@ -2529,7 +2532,7 @@
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="2">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="B33" s="1">
         <v>12.9136</v>
@@ -2579,7 +2582,7 @@
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="2">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="B34" s="1">
         <v>13.4338</v>
@@ -2629,7 +2632,7 @@
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="2">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="B35" s="1">
         <v>12.9657</v>
@@ -2679,7 +2682,7 @@
     </row>
     <row r="36" spans="1:17">
       <c r="A36" s="2">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="B36" s="1">
         <v>13.3568</v>
@@ -2729,7 +2732,7 @@
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="2">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="B37" s="1">
         <v>13.2487</v>
@@ -2779,7 +2782,7 @@
     </row>
     <row r="38" spans="1:17">
       <c r="A38" s="2">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="B38" s="1">
         <v>13.3991</v>
@@ -2914,7 +2917,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>-22</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>13.962</v>
@@ -2961,7 +2964,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>-21</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>12.2659</v>
@@ -3014,7 +3017,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>-20</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>12.4103</v>
@@ -3067,7 +3070,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>-19</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>12.3976</v>
@@ -3120,7 +3123,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>-18</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>12.9013</v>
@@ -3173,7 +3176,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>-17</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>13.3527</v>
@@ -3226,7 +3229,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>-16</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>13.8804</v>
@@ -3279,7 +3282,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>-15</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>14.6268</v>
@@ -3332,7 +3335,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>-14</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>15.3636</v>
@@ -3385,7 +3388,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>-13</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>13.8711</v>
@@ -3438,7 +3441,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>-12</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>14.1252</v>
@@ -3491,7 +3494,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>-11</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>14.1934</v>
@@ -3544,7 +3547,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>-10</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>14.1176</v>
@@ -3597,7 +3600,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="2">
-        <v>-9</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>15.3311</v>
@@ -3650,7 +3653,7 @@
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="2">
-        <v>-8</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>15.3637</v>
@@ -3680,10 +3683,10 @@
         <v>165953.6239</v>
       </c>
       <c r="K16" s="1">
-        <v>123869.3365</v>
+        <v>123874.0463</v>
       </c>
       <c r="L16" s="1">
-        <v>13.5375</v>
+        <v>13.538</v>
       </c>
       <c r="M16" s="1">
         <v>0</v>
@@ -3703,7 +3706,7 @@
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="2">
-        <v>-7</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>14.6447</v>
@@ -3733,10 +3736,10 @@
         <v>168894.5581</v>
       </c>
       <c r="K17" s="1">
-        <v>133609.9567</v>
+        <v>133614.6666</v>
       </c>
       <c r="L17" s="1">
-        <v>13.6576</v>
+        <v>13.6581</v>
       </c>
       <c r="M17" s="1">
         <v>1</v>
@@ -3756,7 +3759,7 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="2">
-        <v>-6</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>15.486</v>
@@ -3786,10 +3789,10 @@
         <v>196822.2564</v>
       </c>
       <c r="K18" s="1">
-        <v>150698.3511</v>
+        <v>150703.061</v>
       </c>
       <c r="L18" s="1">
-        <v>13.7657</v>
+        <v>13.7662</v>
       </c>
       <c r="M18" s="1">
         <v>0</v>
@@ -3809,7 +3812,7 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="2">
-        <v>-5</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>16.1958</v>
@@ -3839,10 +3842,10 @@
         <v>214611.1834</v>
       </c>
       <c r="K19" s="1">
-        <v>151510.1941</v>
+        <v>151514.9039</v>
       </c>
       <c r="L19" s="1">
-        <v>13.7741</v>
+        <v>13.7745</v>
       </c>
       <c r="M19" s="1">
         <v>0</v>
@@ -3862,7 +3865,7 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="2">
-        <v>-4</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>16.4264</v>
@@ -3892,10 +3895,10 @@
         <v>227165.9017</v>
       </c>
       <c r="K20" s="1">
-        <v>153726.8746</v>
+        <v>153731.5844</v>
       </c>
       <c r="L20" s="1">
-        <v>13.8042</v>
+        <v>13.8046</v>
       </c>
       <c r="M20" s="1">
         <v>0.75</v>
@@ -3915,7 +3918,7 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="2">
-        <v>-3</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>17.107</v>
@@ -3945,10 +3948,10 @@
         <v>252524.9342</v>
       </c>
       <c r="K21" s="1">
-        <v>161193.1078</v>
+        <v>161197.8176</v>
       </c>
       <c r="L21" s="1">
-        <v>13.9081</v>
+        <v>13.9085</v>
       </c>
       <c r="M21" s="1">
         <v>0</v>
@@ -3968,7 +3971,7 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="2">
-        <v>-2</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>16.8894</v>
@@ -3998,10 +4001,10 @@
         <v>259971.9975</v>
       </c>
       <c r="K22" s="1">
-        <v>163329.7939</v>
+        <v>163334.5037</v>
       </c>
       <c r="L22" s="1">
-        <v>13.9425</v>
+        <v>13.9429</v>
       </c>
       <c r="M22" s="1">
         <v>1</v>
@@ -4021,7 +4024,7 @@
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="2">
-        <v>-1</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>16.4004</v>
@@ -4051,10 +4054,10 @@
         <v>274384.8953</v>
       </c>
       <c r="K23" s="1">
-        <v>175924.5018</v>
+        <v>175929.2116</v>
       </c>
       <c r="L23" s="1">
-        <v>14.1205</v>
+        <v>14.1209</v>
       </c>
       <c r="M23" s="1">
         <v>0</v>
@@ -4074,7 +4077,7 @@
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="2">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>15.3877</v>
@@ -4104,10 +4107,10 @@
         <v>270735.3408</v>
       </c>
       <c r="K24" s="1">
-        <v>192068.9254</v>
+        <v>192073.6352</v>
       </c>
       <c r="L24" s="1">
-        <v>14.2896</v>
+        <v>14.2899</v>
       </c>
       <c r="M24" s="1">
         <v>0</v>
@@ -4127,7 +4130,7 @@
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="2">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>14.6367</v>
@@ -4157,10 +4160,10 @@
         <v>269415.4887</v>
       </c>
       <c r="K25" s="1">
-        <v>215748.5396</v>
+        <v>215753.2494</v>
       </c>
       <c r="L25" s="1">
-        <v>14.4053</v>
+        <v>14.4057</v>
       </c>
       <c r="M25" s="1">
         <v>0</v>
@@ -4180,7 +4183,7 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="2">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>13.0061</v>
@@ -4210,10 +4213,10 @@
         <v>252593.7546</v>
       </c>
       <c r="K26" s="1">
-        <v>237058.9355</v>
+        <v>237063.6453</v>
       </c>
       <c r="L26" s="1">
-        <v>14.4284</v>
+        <v>14.4287</v>
       </c>
       <c r="M26" s="1">
         <v>0.5</v>
@@ -4233,7 +4236,7 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="2">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>13.835</v>
@@ -4263,10 +4266,10 @@
         <v>285771.8934</v>
       </c>
       <c r="K27" s="1">
-        <v>273942.9757</v>
+        <v>273947.6855</v>
       </c>
       <c r="L27" s="1">
-        <v>14.2232</v>
+        <v>14.2235</v>
       </c>
       <c r="M27" s="1">
         <v>0</v>
@@ -4286,7 +4289,7 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="2">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>14.4216</v>
@@ -4316,10 +4319,10 @@
         <v>306797.2206</v>
       </c>
       <c r="K28" s="1">
-        <v>267987.0933</v>
+        <v>268015.6049</v>
       </c>
       <c r="L28" s="1">
-        <v>14.2315</v>
+        <v>14.233</v>
       </c>
       <c r="M28" s="1">
         <v>0</v>
@@ -4339,7 +4342,7 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="2">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>13.2404</v>
@@ -4369,10 +4372,10 @@
         <v>294681.7879</v>
       </c>
       <c r="K29" s="1">
-        <v>266957.6557</v>
+        <v>266990.2777</v>
       </c>
       <c r="L29" s="1">
-        <v>14.2306</v>
+        <v>14.2324</v>
       </c>
       <c r="M29" s="1">
         <v>0.4</v>
@@ -4392,7 +4395,7 @@
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="2">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>12.382</v>
@@ -4422,10 +4425,10 @@
         <v>293153.0436</v>
       </c>
       <c r="K30" s="1">
-        <v>299201.9011</v>
+        <v>299234.5231</v>
       </c>
       <c r="L30" s="1">
-        <v>14.1201</v>
+        <v>14.1216</v>
       </c>
       <c r="M30" s="1">
         <v>0</v>
@@ -4445,7 +4448,7 @@
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="2">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>11.9583</v>
@@ -4475,10 +4478,10 @@
         <v>293117.7279</v>
       </c>
       <c r="K31" s="1">
-        <v>327468.2126</v>
+        <v>327500.8346</v>
       </c>
       <c r="L31" s="1">
-        <v>13.9538</v>
+        <v>13.9551</v>
       </c>
       <c r="M31" s="1">
         <v>0</v>
@@ -4498,7 +4501,7 @@
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="2">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="B32" s="1">
         <v>12.2036</v>
@@ -4528,10 +4531,10 @@
         <v>309191.4074</v>
       </c>
       <c r="K32" s="1">
-        <v>347470.4855</v>
+        <v>347503.1075</v>
       </c>
       <c r="L32" s="1">
-        <v>13.8228</v>
+        <v>13.8241</v>
       </c>
       <c r="M32" s="1">
         <v>0.4</v>
@@ -4551,7 +4554,7 @@
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="2">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="B33" s="1">
         <v>12.9136</v>
@@ -4581,10 +4584,10 @@
         <v>346261.5946</v>
       </c>
       <c r="K33" s="1">
-        <v>351332.2889</v>
+        <v>351364.9109</v>
       </c>
       <c r="L33" s="1">
-        <v>13.8031</v>
+        <v>13.8043</v>
       </c>
       <c r="M33" s="1">
         <v>0</v>
@@ -4604,7 +4607,7 @@
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="2">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="B34" s="1">
         <v>13.4338</v>
@@ -4634,10 +4637,10 @@
         <v>369150.6835</v>
       </c>
       <c r="K34" s="1">
-        <v>343263.8914</v>
+        <v>343328.7508</v>
       </c>
       <c r="L34" s="1">
-        <v>13.8247</v>
+        <v>13.8274</v>
       </c>
       <c r="M34" s="1">
         <v>0</v>
@@ -4657,7 +4660,7 @@
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="2">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="B35" s="1">
         <v>12.9657</v>
@@ -4687,10 +4690,10 @@
         <v>367653.3948</v>
       </c>
       <c r="K35" s="1">
-        <v>340363.209</v>
+        <v>340439.6619</v>
       </c>
       <c r="L35" s="1">
-        <v>13.8279</v>
+        <v>13.831</v>
       </c>
       <c r="M35" s="1">
         <v>0.3</v>
@@ -4710,7 +4713,7 @@
     </row>
     <row r="36" spans="1:17">
       <c r="A36" s="2">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="B36" s="1">
         <v>13.3568</v>
@@ -4740,10 +4743,10 @@
         <v>394468.3396</v>
       </c>
       <c r="K36" s="1">
-        <v>361946.7208</v>
+        <v>362023.1737</v>
       </c>
       <c r="L36" s="1">
-        <v>13.7751</v>
+        <v>13.778</v>
       </c>
       <c r="M36" s="1">
         <v>0</v>
@@ -4763,7 +4766,7 @@
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="2">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="B37" s="1">
         <v>13.2487</v>
@@ -4793,10 +4796,10 @@
         <v>401635.2776</v>
       </c>
       <c r="K37" s="1">
-        <v>361690.3598</v>
+        <v>361767.8375</v>
       </c>
       <c r="L37" s="1">
-        <v>13.7753</v>
+        <v>13.7783</v>
       </c>
       <c r="M37" s="1">
         <v>0</v>
@@ -4816,7 +4819,7 @@
     </row>
     <row r="38" spans="1:17">
       <c r="A38" s="2">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="B38" s="1">
         <v>13.3991</v>
@@ -4846,10 +4849,10 @@
         <v>415670.6006</v>
       </c>
       <c r="K38" s="1">
-        <v>374574.8619</v>
+        <v>374652.3397</v>
       </c>
       <c r="L38" s="1">
-        <v>13.7575</v>
+        <v>13.7604</v>
       </c>
       <c r="M38" s="1">
         <v>0.4</v>
@@ -4954,7 +4957,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>-22</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>13.962</v>
@@ -5001,7 +5004,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>-21</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>12.2659</v>
@@ -5054,7 +5057,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>-20</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>12.4103</v>
@@ -5107,7 +5110,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>-19</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>12.3976</v>
@@ -5160,7 +5163,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>-18</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>12.9013</v>
@@ -5213,7 +5216,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>-17</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>13.3527</v>
@@ -5266,7 +5269,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>-16</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>13.8804</v>
@@ -5319,7 +5322,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>-15</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>14.6268</v>
@@ -5372,7 +5375,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>-14</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>15.3636</v>
@@ -5425,7 +5428,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>-13</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>13.8711</v>
@@ -5478,7 +5481,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>-12</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>14.1252</v>
@@ -5531,7 +5534,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>-11</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>14.1934</v>
@@ -5584,7 +5587,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>-10</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>14.1176</v>
@@ -5637,7 +5640,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="2">
-        <v>-9</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>15.3311</v>
@@ -5690,7 +5693,7 @@
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="2">
-        <v>-8</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>15.3637</v>
@@ -5720,10 +5723,10 @@
         <v>166510.7118</v>
       </c>
       <c r="K16" s="1">
-        <v>128151.2689</v>
+        <v>128154.6607</v>
       </c>
       <c r="L16" s="1">
-        <v>13.556</v>
+        <v>13.5563</v>
       </c>
       <c r="M16" s="1">
         <v>0</v>
@@ -5743,7 +5746,7 @@
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="2">
-        <v>-7</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>14.6447</v>
@@ -5773,10 +5776,10 @@
         <v>169197.6753</v>
       </c>
       <c r="K17" s="1">
-        <v>138608.0705</v>
+        <v>138611.4623</v>
       </c>
       <c r="L17" s="1">
-        <v>13.6792</v>
+        <v>13.6795</v>
       </c>
       <c r="M17" s="1">
         <v>1</v>
@@ -5796,7 +5799,7 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="2">
-        <v>-6</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>15.486</v>
@@ -5826,10 +5829,10 @@
         <v>197789.0413</v>
       </c>
       <c r="K18" s="1">
-        <v>156728.5234</v>
+        <v>156731.9153</v>
       </c>
       <c r="L18" s="1">
-        <v>13.7873</v>
+        <v>13.7876</v>
       </c>
       <c r="M18" s="1">
         <v>0</v>
@@ -5849,7 +5852,7 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="2">
-        <v>-5</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>16.1958</v>
@@ -5879,10 +5882,10 @@
         <v>215895.6684</v>
       </c>
       <c r="K19" s="1">
-        <v>158020.1426</v>
+        <v>158023.5345</v>
       </c>
       <c r="L19" s="1">
-        <v>13.7999</v>
+        <v>13.8001</v>
       </c>
       <c r="M19" s="1">
         <v>0</v>
@@ -5902,7 +5905,7 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="2">
-        <v>-4</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>16.4264</v>
@@ -5932,10 +5935,10 @@
         <v>228560.0329</v>
       </c>
       <c r="K20" s="1">
-        <v>160804.3371</v>
+        <v>160807.729</v>
       </c>
       <c r="L20" s="1">
-        <v>13.8357</v>
+        <v>13.836</v>
       </c>
       <c r="M20" s="1">
         <v>0.75</v>
@@ -5955,7 +5958,7 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="2">
-        <v>-3</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>17.107</v>
@@ -5985,10 +5988,10 @@
         <v>254608.3763</v>
       </c>
       <c r="K21" s="1">
-        <v>169101.2632</v>
+        <v>169104.655</v>
       </c>
       <c r="L21" s="1">
-        <v>13.9448</v>
+        <v>13.945</v>
       </c>
       <c r="M21" s="1">
         <v>0</v>
@@ -6008,7 +6011,7 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="2">
-        <v>-2</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>16.8894</v>
@@ -6038,10 +6041,10 @@
         <v>261928.3509</v>
       </c>
       <c r="K22" s="1">
-        <v>171869.9872</v>
+        <v>171873.3791</v>
       </c>
       <c r="L22" s="1">
-        <v>13.9868</v>
+        <v>13.9871</v>
       </c>
       <c r="M22" s="1">
         <v>1</v>
@@ -6061,7 +6064,7 @@
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="2">
-        <v>-1</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>16.4004</v>
@@ -6091,10 +6094,10 @@
         <v>276538.8465</v>
       </c>
       <c r="K23" s="1">
-        <v>185642.9203</v>
+        <v>185646.3121</v>
       </c>
       <c r="L23" s="1">
-        <v>14.1692</v>
+        <v>14.1694</v>
       </c>
       <c r="M23" s="1">
         <v>0</v>
@@ -6114,7 +6117,7 @@
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="2">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>15.3877</v>
@@ -6144,10 +6147,10 @@
         <v>272146.0382</v>
       </c>
       <c r="K24" s="1">
-        <v>203211.0772</v>
+        <v>203214.469</v>
       </c>
       <c r="L24" s="1">
-        <v>14.34</v>
+        <v>14.3402</v>
       </c>
       <c r="M24" s="1">
         <v>0</v>
@@ -6167,7 +6170,7 @@
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="2">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>14.6367</v>
@@ -6197,10 +6200,10 @@
         <v>270179.0279</v>
       </c>
       <c r="K25" s="1">
-        <v>228795.5851</v>
+        <v>228798.9769</v>
       </c>
       <c r="L25" s="1">
-        <v>14.453</v>
+        <v>14.4532</v>
       </c>
       <c r="M25" s="1">
         <v>0</v>
@@ -6220,7 +6223,7 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="2">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>13.0061</v>
@@ -6250,10 +6253,10 @@
         <v>251754.6187</v>
       </c>
       <c r="K26" s="1">
-        <v>251968.4909</v>
+        <v>251971.8827</v>
       </c>
       <c r="L26" s="1">
-        <v>14.4724</v>
+        <v>14.4726</v>
       </c>
       <c r="M26" s="1">
         <v>0.5</v>
@@ -6273,7 +6276,7 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="2">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>13.835</v>
@@ -6303,10 +6306,10 @@
         <v>286118.3459</v>
       </c>
       <c r="K27" s="1">
-        <v>287735.3758</v>
+        <v>287738.7677</v>
       </c>
       <c r="L27" s="1">
-        <v>14.2763</v>
+        <v>14.2764</v>
       </c>
       <c r="M27" s="1">
         <v>0</v>
@@ -6326,7 +6329,7 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="2">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>14.4216</v>
@@ -6356,10 +6359,10 @@
         <v>307861.1296</v>
       </c>
       <c r="K28" s="1">
-        <v>286365.3059</v>
+        <v>286374.173</v>
       </c>
       <c r="L28" s="1">
-        <v>14.2783</v>
+        <v>14.2787</v>
       </c>
       <c r="M28" s="1">
         <v>0</v>
@@ -6379,7 +6382,7 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="2">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>13.2404</v>
@@ -6409,10 +6412,10 @@
         <v>294246.4588</v>
       </c>
       <c r="K29" s="1">
-        <v>286005.6818</v>
+        <v>286015.9849</v>
       </c>
       <c r="L29" s="1">
-        <v>14.2781</v>
+        <v>14.2786</v>
       </c>
       <c r="M29" s="1">
         <v>0.4</v>
@@ -6432,7 +6435,7 @@
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="2">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>12.382</v>
@@ -6462,10 +6465,10 @@
         <v>291883.5942</v>
       </c>
       <c r="K30" s="1">
-        <v>321202.479</v>
+        <v>321212.782</v>
       </c>
       <c r="L30" s="1">
-        <v>14.1598</v>
+        <v>14.1603</v>
       </c>
       <c r="M30" s="1">
         <v>0</v>
@@ -6485,7 +6488,7 @@
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="2">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>11.9583</v>
@@ -6515,10 +6518,10 @@
         <v>291471.3967</v>
       </c>
       <c r="K31" s="1">
-        <v>342774.3081</v>
+        <v>342784.6111</v>
       </c>
       <c r="L31" s="1">
-        <v>14.035</v>
+        <v>14.0354</v>
       </c>
       <c r="M31" s="1">
         <v>0</v>
@@ -6538,7 +6541,7 @@
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="2">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="B32" s="1">
         <v>12.2036</v>
@@ -6568,10 +6571,10 @@
         <v>307614.4225</v>
       </c>
       <c r="K32" s="1">
-        <v>352774.3081</v>
+        <v>352784.6111</v>
       </c>
       <c r="L32" s="1">
-        <v>13.9672</v>
+        <v>13.9676</v>
       </c>
       <c r="M32" s="1">
         <v>0.4</v>
@@ -6591,7 +6594,7 @@
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="2">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="B33" s="1">
         <v>12.9136</v>
@@ -6621,10 +6624,10 @@
         <v>345143.931</v>
       </c>
       <c r="K33" s="1">
-        <v>362774.3081</v>
+        <v>362784.6111</v>
       </c>
       <c r="L33" s="1">
-        <v>13.9126</v>
+        <v>13.913</v>
       </c>
       <c r="M33" s="1">
         <v>0</v>
@@ -6644,7 +6647,7 @@
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="2">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="B34" s="1">
         <v>13.4338</v>
@@ -6674,10 +6677,10 @@
         <v>369043.4762</v>
       </c>
       <c r="K34" s="1">
-        <v>372849.5193</v>
+        <v>372859.8224</v>
       </c>
       <c r="L34" s="1">
-        <v>13.8844</v>
+        <v>13.8848</v>
       </c>
       <c r="M34" s="1">
         <v>0</v>
@@ -6697,7 +6700,7 @@
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="2">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="B35" s="1">
         <v>12.9657</v>
@@ -6727,10 +6730,10 @@
         <v>366577.0473</v>
       </c>
       <c r="K35" s="1">
-        <v>370631.2838</v>
+        <v>370650.4527</v>
       </c>
       <c r="L35" s="1">
-        <v>13.887</v>
+        <v>13.8878</v>
       </c>
       <c r="M35" s="1">
         <v>0.3</v>
@@ -6750,7 +6753,7 @@
     </row>
     <row r="36" spans="1:17">
       <c r="A36" s="2">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="B36" s="1">
         <v>13.3568</v>
@@ -6780,10 +6783,10 @@
         <v>394834.1168</v>
       </c>
       <c r="K36" s="1">
-        <v>394984.082</v>
+        <v>395003.2509</v>
       </c>
       <c r="L36" s="1">
-        <v>13.8283</v>
+        <v>13.829</v>
       </c>
       <c r="M36" s="1">
         <v>0</v>
@@ -6803,7 +6806,7 @@
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="2">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="B37" s="1">
         <v>13.2487</v>
@@ -6833,10 +6836,10 @@
         <v>401743.6451</v>
       </c>
       <c r="K37" s="1">
-        <v>395686.5917</v>
+        <v>395705.7607</v>
       </c>
       <c r="L37" s="1">
-        <v>13.8275</v>
+        <v>13.8281</v>
       </c>
       <c r="M37" s="1">
         <v>0</v>
@@ -6856,7 +6859,7 @@
     </row>
     <row r="38" spans="1:17">
       <c r="A38" s="2">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="B38" s="1">
         <v>13.3991</v>
@@ -6886,10 +6889,10 @@
         <v>416149.0211</v>
       </c>
       <c r="K38" s="1">
-        <v>410741.63</v>
+        <v>410760.7989</v>
       </c>
       <c r="L38" s="1">
-        <v>13.8064</v>
+        <v>13.8071</v>
       </c>
       <c r="M38" s="1">
         <v>0.4</v>
@@ -6994,7 +6997,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>-22</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>13.962</v>
@@ -7041,7 +7044,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>-21</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>12.2659</v>
@@ -7094,7 +7097,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>-20</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>12.4103</v>
@@ -7147,7 +7150,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>-19</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>12.3976</v>
@@ -7200,7 +7203,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>-18</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>12.9013</v>
@@ -7253,7 +7256,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>-17</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>13.3527</v>
@@ -7306,7 +7309,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>-16</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>13.8804</v>
@@ -7359,7 +7362,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>-15</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>14.6268</v>
@@ -7412,7 +7415,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>-14</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>15.3636</v>
@@ -7465,7 +7468,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>-13</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>13.8711</v>
@@ -7518,7 +7521,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>-12</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>14.1252</v>
@@ -7571,7 +7574,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>-11</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>14.1934</v>
@@ -7624,7 +7627,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>-10</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>14.1176</v>
@@ -7677,7 +7680,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="2">
-        <v>-9</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>15.3311</v>
@@ -7730,7 +7733,7 @@
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="2">
-        <v>-8</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>15.3637</v>
@@ -7760,10 +7763,10 @@
         <v>167085.3127</v>
       </c>
       <c r="K16" s="1">
-        <v>132611.1091</v>
+        <v>132613.0688</v>
       </c>
       <c r="L16" s="1">
-        <v>13.5743</v>
+        <v>13.5745</v>
       </c>
       <c r="M16" s="1">
         <v>0</v>
@@ -7783,7 +7786,7 @@
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="2">
-        <v>-7</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>14.6447</v>
@@ -7813,10 +7816,10 @@
         <v>169506.9743</v>
       </c>
       <c r="K17" s="1">
-        <v>143832.1995</v>
+        <v>143834.1592</v>
       </c>
       <c r="L17" s="1">
-        <v>13.7006</v>
+        <v>13.7008</v>
       </c>
       <c r="M17" s="1">
         <v>1</v>
@@ -7836,7 +7839,7 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="2">
-        <v>-6</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>15.486</v>
@@ -7866,10 +7869,10 @@
         <v>198792.6003</v>
       </c>
       <c r="K18" s="1">
-        <v>163052.154</v>
+        <v>163054.1137</v>
       </c>
       <c r="L18" s="1">
-        <v>13.8086</v>
+        <v>13.8088</v>
       </c>
       <c r="M18" s="1">
         <v>0</v>
@@ -7889,7 +7892,7 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="2">
-        <v>-5</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>16.1958</v>
@@ -7919,10 +7922,10 @@
         <v>217233.1651</v>
       </c>
       <c r="K19" s="1">
-        <v>164871.2118</v>
+        <v>164873.1715</v>
       </c>
       <c r="L19" s="1">
-        <v>13.8254</v>
+        <v>13.8256</v>
       </c>
       <c r="M19" s="1">
         <v>0</v>
@@ -7942,7 +7945,7 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="2">
-        <v>-4</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>16.4264</v>
@@ -7972,10 +7975,10 @@
         <v>230013.0962</v>
       </c>
       <c r="K20" s="1">
-        <v>168280.0347</v>
+        <v>168281.9944</v>
       </c>
       <c r="L20" s="1">
-        <v>13.867</v>
+        <v>13.8672</v>
       </c>
       <c r="M20" s="1">
         <v>0.75</v>
@@ -7995,7 +7998,7 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="2">
-        <v>-3</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>17.107</v>
@@ -8025,10 +8028,10 @@
         <v>256789.7928</v>
       </c>
       <c r="K21" s="1">
-        <v>177484.7087</v>
+        <v>177486.6684</v>
       </c>
       <c r="L21" s="1">
-        <v>13.9812</v>
+        <v>13.9814</v>
       </c>
       <c r="M21" s="1">
         <v>0</v>
@@ -8048,7 +8051,7 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="2">
-        <v>-2</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>16.8894</v>
@@ -8078,10 +8081,10 @@
         <v>263974.6591</v>
       </c>
       <c r="K22" s="1">
-        <v>180957.5556</v>
+        <v>180959.5153</v>
       </c>
       <c r="L22" s="1">
-        <v>14.0308</v>
+        <v>14.031</v>
       </c>
       <c r="M22" s="1">
         <v>1</v>
@@ -8101,7 +8104,7 @@
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="2">
-        <v>-1</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>16.4004</v>
@@ -8131,10 +8134,10 @@
         <v>278793.7355</v>
       </c>
       <c r="K23" s="1">
-        <v>196020.8823</v>
+        <v>196022.842</v>
       </c>
       <c r="L23" s="1">
-        <v>14.2176</v>
+        <v>14.2177</v>
       </c>
       <c r="M23" s="1">
         <v>0</v>
@@ -8154,7 +8157,7 @@
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="2">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>15.3877</v>
@@ -8184,10 +8187,10 @@
         <v>273606.0451</v>
       </c>
       <c r="K24" s="1">
-        <v>215149.4428</v>
+        <v>215151.4025</v>
       </c>
       <c r="L24" s="1">
-        <v>14.3901</v>
+        <v>14.3902</v>
       </c>
       <c r="M24" s="1">
         <v>0</v>
@@ -8207,7 +8210,7 @@
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="2">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>14.6367</v>
@@ -8237,10 +8240,10 @@
         <v>270944.5524</v>
       </c>
       <c r="K25" s="1">
-        <v>242818.3591</v>
+        <v>242820.3188</v>
       </c>
       <c r="L25" s="1">
-        <v>14.5003</v>
+        <v>14.5004</v>
       </c>
       <c r="M25" s="1">
         <v>0</v>
@@ -8260,7 +8263,7 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="2">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>13.0061</v>
@@ -8290,10 +8293,10 @@
         <v>250794.671</v>
       </c>
       <c r="K26" s="1">
-        <v>268041.7226</v>
+        <v>268043.6823</v>
       </c>
       <c r="L26" s="1">
-        <v>14.5157</v>
+        <v>14.5158</v>
       </c>
       <c r="M26" s="1">
         <v>0.5</v>
@@ -8313,7 +8316,7 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="2">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>13.835</v>
@@ -8343,10 +8346,10 @@
         <v>285634.4376</v>
       </c>
       <c r="K27" s="1">
-        <v>289150.843</v>
+        <v>289152.8027</v>
       </c>
       <c r="L27" s="1">
-        <v>14.3961</v>
+        <v>14.3962</v>
       </c>
       <c r="M27" s="1">
         <v>0</v>
@@ -8366,7 +8369,7 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="2">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>14.4216</v>
@@ -8396,10 +8399,10 @@
         <v>308082.8651</v>
       </c>
       <c r="K28" s="1">
-        <v>307154.1953</v>
+        <v>307156.155</v>
       </c>
       <c r="L28" s="1">
-        <v>14.3637</v>
+        <v>14.3638</v>
       </c>
       <c r="M28" s="1">
         <v>0</v>
@@ -8419,7 +8422,7 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="2">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>13.2404</v>
@@ -8449,10 +8452,10 @@
         <v>292836.0484</v>
       </c>
       <c r="K29" s="1">
-        <v>307588.1162</v>
+        <v>307590.0759</v>
       </c>
       <c r="L29" s="1">
-        <v>14.3638</v>
+        <v>14.3639</v>
       </c>
       <c r="M29" s="1">
         <v>0.4</v>
@@ -8472,7 +8475,7 @@
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="2">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>12.382</v>
@@ -8502,10 +8505,10 @@
         <v>290837.0407</v>
       </c>
       <c r="K30" s="1">
-        <v>327460.3705</v>
+        <v>327462.3302</v>
       </c>
       <c r="L30" s="1">
-        <v>14.2921</v>
+        <v>14.2922</v>
       </c>
       <c r="M30" s="1">
         <v>0</v>
@@ -8525,7 +8528,7 @@
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="2">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>11.9583</v>
@@ -8555,10 +8558,10 @@
         <v>290475.5651</v>
       </c>
       <c r="K31" s="1">
-        <v>345169.447</v>
+        <v>345171.4067</v>
       </c>
       <c r="L31" s="1">
-        <v>14.1815</v>
+        <v>14.1816</v>
       </c>
       <c r="M31" s="1">
         <v>0</v>
@@ -8578,7 +8581,7 @@
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="2">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="B32" s="1">
         <v>12.2036</v>
@@ -8608,10 +8611,10 @@
         <v>306598.1642</v>
       </c>
       <c r="K32" s="1">
-        <v>355169.447</v>
+        <v>355171.4067</v>
       </c>
       <c r="L32" s="1">
-        <v>14.1086</v>
+        <v>14.1087</v>
       </c>
       <c r="M32" s="1">
         <v>0.4</v>
@@ -8631,7 +8634,7 @@
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="2">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="B33" s="1">
         <v>12.9136</v>
@@ -8661,7 +8664,7 @@
         <v>344038.5065</v>
       </c>
       <c r="K33" s="1">
-        <v>365169.447</v>
+        <v>365171.4067</v>
       </c>
       <c r="L33" s="1">
         <v>14.0495</v>
@@ -8684,7 +8687,7 @@
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="2">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="B34" s="1">
         <v>13.4338</v>
@@ -8714,10 +8717,10 @@
         <v>368219.3793</v>
       </c>
       <c r="K34" s="1">
-        <v>384232.057</v>
+        <v>384234.0167</v>
       </c>
       <c r="L34" s="1">
-        <v>13.9899</v>
+        <v>13.99</v>
       </c>
       <c r="M34" s="1">
         <v>0</v>
@@ -8737,7 +8740,7 @@
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="2">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="B35" s="1">
         <v>12.9657</v>
@@ -8767,10 +8770,10 @@
         <v>365003.5388</v>
       </c>
       <c r="K35" s="1">
-        <v>394232.057</v>
+        <v>394234.0167</v>
       </c>
       <c r="L35" s="1">
-        <v>13.976</v>
+        <v>13.9761</v>
       </c>
       <c r="M35" s="1">
         <v>0.3</v>
@@ -8790,7 +8793,7 @@
     </row>
     <row r="36" spans="1:17">
       <c r="A36" s="2">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="B36" s="1">
         <v>13.3568</v>
@@ -8820,10 +8823,10 @@
         <v>393889.6358</v>
       </c>
       <c r="K36" s="1">
-        <v>404232.057</v>
+        <v>404234.0167</v>
       </c>
       <c r="L36" s="1">
-        <v>13.9498</v>
+        <v>13.9499</v>
       </c>
       <c r="M36" s="1">
         <v>0</v>
@@ -8843,7 +8846,7 @@
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="2">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="B37" s="1">
         <v>13.2487</v>
@@ -8873,10 +8876,10 @@
         <v>400550.517</v>
       </c>
       <c r="K37" s="1">
-        <v>421848.1681</v>
+        <v>421850.1278</v>
       </c>
       <c r="L37" s="1">
-        <v>13.9252</v>
+        <v>13.9253</v>
       </c>
       <c r="M37" s="1">
         <v>0</v>
@@ -8896,7 +8899,7 @@
     </row>
     <row r="38" spans="1:17">
       <c r="A38" s="2">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="B38" s="1">
         <v>13.3991</v>
@@ -8926,7 +8929,7 @@
         <v>415170.7584</v>
       </c>
       <c r="K38" s="1">
-        <v>431848.1681</v>
+        <v>431850.1278</v>
       </c>
       <c r="L38" s="1">
         <v>13.9095</v>
@@ -9034,7 +9037,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>-22</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>13.962</v>
@@ -9081,7 +9084,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>-21</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>12.2659</v>
@@ -9134,7 +9137,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>-20</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>12.4103</v>
@@ -9187,7 +9190,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>-19</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>12.3976</v>
@@ -9240,7 +9243,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>-18</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>12.9013</v>
@@ -9293,7 +9296,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>-17</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>13.3527</v>
@@ -9346,7 +9349,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>-16</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>13.8804</v>
@@ -9399,7 +9402,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>-15</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>14.6268</v>
@@ -9452,7 +9455,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>-14</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>15.3636</v>
@@ -9505,7 +9508,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>-13</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>13.8711</v>
@@ -9558,7 +9561,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>-12</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>14.1252</v>
@@ -9611,7 +9614,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>-11</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>14.1934</v>
@@ -9664,7 +9667,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>-10</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>14.1176</v>
@@ -9717,7 +9720,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="2">
-        <v>-9</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>15.3311</v>
@@ -9770,7 +9773,7 @@
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="2">
-        <v>-8</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>15.3637</v>
@@ -9823,7 +9826,7 @@
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="2">
-        <v>-7</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>14.6447</v>
@@ -9876,7 +9879,7 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="2">
-        <v>-6</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>15.486</v>
@@ -9929,7 +9932,7 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="2">
-        <v>-5</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>16.1958</v>
@@ -9982,7 +9985,7 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="2">
-        <v>-4</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>16.4264</v>
@@ -10035,7 +10038,7 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="2">
-        <v>-3</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>17.107</v>
@@ -10088,7 +10091,7 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="2">
-        <v>-2</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>16.8894</v>
@@ -10141,7 +10144,7 @@
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="2">
-        <v>-1</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>16.4004</v>
@@ -10194,7 +10197,7 @@
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="2">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>15.3877</v>
@@ -10247,7 +10250,7 @@
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="2">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>14.6367</v>
@@ -10300,7 +10303,7 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="2">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>13.0061</v>
@@ -10353,7 +10356,7 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="2">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>13.835</v>
@@ -10406,7 +10409,7 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="2">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="B28" s="1">
         <v>14.4216</v>
@@ -10459,7 +10462,7 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="2">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="B29" s="1">
         <v>13.2404</v>
@@ -10512,7 +10515,7 @@
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="2">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1">
         <v>12.382</v>
@@ -10565,7 +10568,7 @@
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="2">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1">
         <v>11.9583</v>
@@ -10618,7 +10621,7 @@
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="2">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="B32" s="1">
         <v>12.2036</v>
@@ -10671,7 +10674,7 @@
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="2">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="B33" s="1">
         <v>12.9136</v>
@@ -10724,7 +10727,7 @@
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="2">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="B34" s="1">
         <v>13.4338</v>
@@ -10777,7 +10780,7 @@
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="2">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="B35" s="1">
         <v>12.9657</v>
@@ -10830,7 +10833,7 @@
     </row>
     <row r="36" spans="1:17">
       <c r="A36" s="2">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="B36" s="1">
         <v>13.3568</v>
@@ -10883,7 +10886,7 @@
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="2">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="B37" s="1">
         <v>13.2487</v>
@@ -10936,7 +10939,7 @@
     </row>
     <row r="38" spans="1:17">
       <c r="A38" s="2">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="B38" s="1">
         <v>13.3991</v>
@@ -10994,13 +10997,13 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" customWidth="1"/>
     <col min="2" max="2" width="8.7109375" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" customWidth="1"/>
     <col min="4" max="4" width="11.7109375" customWidth="1"/>
@@ -11045,10 +11048,10 @@
         <v>13.9335</v>
       </c>
       <c r="D3" s="1">
-        <v>13.7575</v>
+        <v>13.7604</v>
       </c>
       <c r="E3" s="1">
-        <v>13.8064</v>
+        <v>13.8071</v>
       </c>
       <c r="F3" s="1">
         <v>13.9095</v>
@@ -11164,6 +11167,26 @@
       </c>
       <c r="G8" s="1">
         <v>85050.806</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" s="4" customFormat="1">
+      <c r="A9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="4">
+        <v>0.9597</v>
+      </c>
+      <c r="D9" s="4">
+        <v>1.1095</v>
+      </c>
+      <c r="E9" s="4">
+        <v>1.0131</v>
+      </c>
+      <c r="F9" s="4">
+        <v>0.9614</v>
+      </c>
+      <c r="G9" s="4">
+        <v>0.9548</v>
       </c>
     </row>
   </sheetData>
